--- a/medicine/Pharmacie/Ministère_de_l'Industrie_pharmaceutique/Ministère_de_l'Industrie_pharmaceutique.xlsx
+++ b/medicine/Pharmacie/Ministère_de_l'Industrie_pharmaceutique/Ministère_de_l'Industrie_pharmaceutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Industrie_pharmaceutique</t>
+          <t>Ministère_de_l'Industrie_pharmaceutique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de l'Industrie pharmaceutique est un ministère du gouvernement algérien qui est chargé de superviser et de réglementer l'industrie pharmaceutique en Algérie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Industrie_pharmaceutique</t>
+          <t>Ministère_de_l'Industrie_pharmaceutique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ministère de l'Industrie pharmaceutique a été créé en 2020[1]. Ce nouveau ministère est né de la scission du ministère de l'Industrie et des Mines, qui était auparavant responsable de la réglementation de l'industrie pharmaceutique en Algérie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère de l'Industrie pharmaceutique a été créé en 2020. Ce nouveau ministère est né de la scission du ministère de l'Industrie et des Mines, qui était auparavant responsable de la réglementation de l'industrie pharmaceutique en Algérie.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Industrie_pharmaceutique</t>
+          <t>Ministère_de_l'Industrie_pharmaceutique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Rôle et responsabilités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le ministère de l'Industrie pharmaceutique est responsable de la réglementation de l'industrie pharmaceutique en Algérie. Les principales responsabilités du ministère comprennent :
 La supervision et la réglementation de la production, de la distribution et de la vente de médicaments et de produits pharmaceutiques en Algérie.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Industrie_pharmaceutique</t>
+          <t>Ministère_de_l'Industrie_pharmaceutique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Structure organisationnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère est dirigé par un Ministre, nommé par le Président de la République d'Algérie. Le ministre est assisté par un ou plusieurs Secrétaires d'État, nommés par le Président de la République sur proposition du Premier Ministre.
 Le ministère est organisé en plusieurs Directions centrales, chacune étant responsable d'un domaine spécifique de l'industrie pharmaceutique.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Industrie_pharmaceutique</t>
+          <t>Ministère_de_l'Industrie_pharmaceutique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Perspectives</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de l'Industrie pharmaceutique joue un rôle important dans le développement de l'industrie pharmaceutique en Algérie. Avec la création de ce ministère, le gouvernement algérien espère promouvoir l'investissement et la recherche en matière de médicaments et de produits pharmaceutiques, ainsi que renforcer les contrôles de qualité et de sécurité dans l'ensemble de l'industrie.
-Finalement, à la faveur d'un remaniement ministériel, le ministère est intégré au ministère de l'Industrie et de la Production pharmaceutique en mars 2023[2].
+Finalement, à la faveur d'un remaniement ministériel, le ministère est intégré au ministère de l'Industrie et de la Production pharmaceutique en mars 2023.
 </t>
         </is>
       </c>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Industrie_pharmaceutique</t>
+          <t>Ministère_de_l'Industrie_pharmaceutique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Ministres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La liste des ministres : 
 4 janvier 2020 – 9 septembre 2022 : Lotfi Benbahmad
